--- a/input/底稿.xlsx
+++ b/input/底稿.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmProducts\excel2word\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$13</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -65,11 +70,6 @@
     <t>期末单位净值（含EQ）</t>
   </si>
   <si>
-    <t xml:space="preserve">期末资产净值
-( after EQ)
-</t>
-  </si>
-  <si>
     <t>TOTAL（按客户）</t>
   </si>
   <si>
@@ -149,21 +149,22 @@
   </si>
   <si>
     <t>rine.wu@gicentre.com</t>
+  </si>
+  <si>
+    <t>期末资产净值( after EQ)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,7 +189,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,143 +198,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,216 +220,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -585,255 +277,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,7 +317,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,7 +326,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,10 +335,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -891,10 +347,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,7 +362,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="3" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -918,59 +374,66 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -986,6 +449,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1243,44 +709,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="4" width="41.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="81.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="8" width="74.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.2222222222222" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.22222222222222" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.4444444444444" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.6666666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6666666666667" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1111111111111" style="3" customWidth="1"/>
-    <col min="18" max="18" width="16.4444444444444" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13.4444444444444" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="21" max="21" width="13.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="41.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="81.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="74.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:20">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1326,49 +792,49 @@
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="23" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:21">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44347</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="13">
         <v>44109</v>
@@ -1395,52 +861,52 @@
         <v>1086720.27</v>
       </c>
       <c r="R2" s="20">
-        <f>SUMIFS(P:P,B:B,B2)</f>
+        <f t="shared" ref="R2:R13" si="0">SUMIFS(P:P,B:B,B2)</f>
         <v>1086720.27</v>
       </c>
       <c r="S2" s="25">
         <f>(K2*L2-M2)+(K2*L2+N2-P2)</f>
-        <v>2.09364800003823</v>
+        <v>2.0936480000382289</v>
       </c>
       <c r="T2" s="25">
         <f>P2/K2-O2</f>
-        <v>-0.00323163646464764</v>
+        <v>-3.2316364646476359E-3</v>
       </c>
       <c r="U2" s="26"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:21">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44347</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="13">
         <v>44137</v>
       </c>
       <c r="K3" s="14">
-        <v>121.644</v>
+        <v>121.64400000000001</v>
       </c>
       <c r="L3" s="15">
         <v>917.3768</v>
@@ -1461,46 +927,46 @@
         <v>1086720.27</v>
       </c>
       <c r="R3" s="20">
-        <f>SUMIFS(P:P,B:B,B3)</f>
+        <f t="shared" si="0"/>
         <v>1086720.27</v>
       </c>
       <c r="S3" s="25">
-        <f t="shared" ref="S3:S8" si="0">(K3*L3-M3)+(K3*L3+N3-P3)</f>
-        <v>-0.733081599988509</v>
+        <f t="shared" ref="S3:S8" si="1">(K3*L3-M3)+(K3*L3+N3-P3)</f>
+        <v>-0.73308159998850897</v>
       </c>
       <c r="T3" s="25">
-        <f t="shared" ref="T3:T8" si="1">P3/K3-O3</f>
-        <v>0.00301322547761629</v>
+        <f t="shared" ref="T3:T8" si="2">P3/K3-O3</f>
+        <v>3.0132254776162881E-3</v>
       </c>
       <c r="U3" s="26"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:21">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44347</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="I4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="13">
         <v>44166</v>
@@ -1527,52 +993,52 @@
         <v>1086720.27</v>
       </c>
       <c r="R4" s="20">
-        <f>SUMIFS(P:P,B:B,B4)</f>
+        <f t="shared" si="0"/>
         <v>1086720.27</v>
       </c>
       <c r="S4" s="25">
-        <f t="shared" si="0"/>
-        <v>-0.908208000008017</v>
+        <f t="shared" si="1"/>
+        <v>-0.90820800000801682</v>
       </c>
       <c r="T4" s="25">
-        <f t="shared" si="1"/>
-        <v>0.00389889241864694</v>
+        <f t="shared" si="2"/>
+        <v>3.8988924186469376E-3</v>
       </c>
       <c r="U4" s="26"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:21">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44347</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="I5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="13">
         <v>44200</v>
       </c>
       <c r="K5" s="14">
-        <v>330.373</v>
+        <v>330.37299999999999</v>
       </c>
       <c r="L5" s="15">
         <v>917.3768</v>
@@ -1593,52 +1059,52 @@
         <v>1086720.27</v>
       </c>
       <c r="R5" s="20">
-        <f>SUMIFS(P:P,B:B,B5)</f>
+        <f t="shared" si="0"/>
         <v>1086720.27</v>
       </c>
       <c r="S5" s="25">
-        <f t="shared" si="0"/>
-        <v>-0.668907199986279</v>
+        <f t="shared" si="1"/>
+        <v>-0.66890719998627901</v>
       </c>
       <c r="T5" s="25">
-        <f t="shared" si="1"/>
-        <v>0.00101235149361401</v>
+        <f t="shared" si="2"/>
+        <v>1.0123514936140054E-3</v>
       </c>
       <c r="U5" s="26"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:21">
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44347</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="I6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="13">
         <v>44256</v>
       </c>
       <c r="K6" s="14">
-        <v>291.439</v>
+        <v>291.43900000000002</v>
       </c>
       <c r="L6" s="15">
         <v>917.3768</v>
@@ -1650,7 +1116,7 @@
         <v>678.56</v>
       </c>
       <c r="O6" s="15">
-        <v>919.7051</v>
+        <v>919.70510000000002</v>
       </c>
       <c r="P6" s="16">
         <v>268037.51</v>
@@ -1659,52 +1125,52 @@
         <v>1086720.27</v>
       </c>
       <c r="R6" s="20">
-        <f>SUMIFS(P:P,B:B,B6)</f>
+        <f t="shared" si="0"/>
         <v>1086720.27</v>
       </c>
       <c r="S6" s="25">
-        <f t="shared" si="0"/>
-        <v>0.85443040006794</v>
+        <f t="shared" si="1"/>
+        <v>0.85443040006794035</v>
       </c>
       <c r="T6" s="25">
-        <f t="shared" si="1"/>
-        <v>-0.00145704212548026</v>
+        <f t="shared" si="2"/>
+        <v>-1.4570421254802568E-3</v>
       </c>
       <c r="U6" s="26"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:21">
+    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>44347</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="H7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="J7" s="17">
         <v>44256</v>
       </c>
       <c r="K7" s="18">
-        <v>388.607</v>
+        <v>388.60700000000003</v>
       </c>
       <c r="L7" s="19">
         <v>917.3768</v>
@@ -1716,7 +1182,7 @@
         <v>904.8</v>
       </c>
       <c r="O7" s="19">
-        <v>919.7051</v>
+        <v>919.70510000000002</v>
       </c>
       <c r="P7" s="20">
         <v>357403.77</v>
@@ -1725,52 +1191,52 @@
         <v>357403.77</v>
       </c>
       <c r="R7" s="20">
-        <f>SUMIFS(P:P,B:B,B7)</f>
+        <f t="shared" si="0"/>
         <v>714807.54</v>
       </c>
       <c r="S7" s="25">
-        <f t="shared" si="0"/>
-        <v>0.152235200104769</v>
+        <f t="shared" si="1"/>
+        <v>0.15223520010476932</v>
       </c>
       <c r="T7" s="25">
-        <f t="shared" si="1"/>
-        <v>-0.000179604845016001</v>
+        <f t="shared" si="2"/>
+        <v>-1.7960484501600149E-4</v>
       </c>
       <c r="U7" s="26"/>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:21">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>44347</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="J8" s="17">
         <v>44256</v>
       </c>
       <c r="K8" s="18">
-        <v>388.607</v>
+        <v>388.60700000000003</v>
       </c>
       <c r="L8" s="19">
         <v>917.3768</v>
@@ -1782,7 +1248,7 @@
         <v>904.8</v>
       </c>
       <c r="O8" s="19">
-        <v>919.7051</v>
+        <v>919.70510000000002</v>
       </c>
       <c r="P8" s="20">
         <v>357403.77</v>
@@ -1791,52 +1257,52 @@
         <v>357403.77</v>
       </c>
       <c r="R8" s="20">
-        <f>SUMIFS(P:P,B:B,B8)</f>
+        <f t="shared" si="0"/>
         <v>714807.54</v>
       </c>
       <c r="S8" s="25">
-        <f t="shared" si="0"/>
-        <v>0.152235200104769</v>
+        <f t="shared" si="1"/>
+        <v>0.15223520010476932</v>
       </c>
       <c r="T8" s="25">
-        <f t="shared" si="1"/>
-        <v>-0.000179604845016001</v>
+        <f t="shared" si="2"/>
+        <v>-1.7960484501600149E-4</v>
       </c>
       <c r="U8" s="26"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:21">
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44347</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="G9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="J9" s="13">
         <v>44046</v>
       </c>
       <c r="K9" s="14">
-        <v>645.921</v>
+        <v>645.92100000000005</v>
       </c>
       <c r="L9" s="15">
         <v>917.3768</v>
@@ -1857,46 +1323,46 @@
         <v>592553.4</v>
       </c>
       <c r="R9" s="20">
-        <f>SUMIFS(P:P,B:B,B9)</f>
+        <f t="shared" si="0"/>
         <v>592553.4</v>
       </c>
       <c r="S9" s="25">
         <f>(K9*L9-M9)+(K9*L9+N9-P9)</f>
-        <v>-0.919934399891645</v>
+        <v>-0.91993439989164472</v>
       </c>
       <c r="T9" s="25">
         <f>P9/K9-O9</f>
-        <v>0.000712110614131234</v>
+        <v>7.1211061413123389E-4</v>
       </c>
       <c r="U9" s="26"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>44347</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="H10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="J10" s="17">
         <v>44075</v>
@@ -1923,52 +1389,52 @@
         <v>1730245.64</v>
       </c>
       <c r="R10" s="20">
-        <f>SUMIFS(P:P,B:B,B10)</f>
+        <f t="shared" si="0"/>
         <v>1730245.64</v>
       </c>
       <c r="S10" s="25">
         <f>(K10*L10-M10)+(K10*L10+N10-P10)</f>
-        <v>0.0927999999839813</v>
+        <v>9.2799999983981252E-2</v>
       </c>
       <c r="T10" s="25">
         <f>P10/K10-O10</f>
-        <v>-0.000106544202139958</v>
+        <v>-1.0654420213995763E-4</v>
       </c>
       <c r="U10" s="27"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>44347</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="17">
         <v>44109</v>
       </c>
       <c r="K11" s="18">
-        <v>453.504</v>
+        <v>453.50400000000002</v>
       </c>
       <c r="L11" s="19">
         <v>917.3768</v>
@@ -1989,52 +1455,52 @@
         <v>1730245.64</v>
       </c>
       <c r="R11" s="20">
-        <f>SUMIFS(P:P,B:B,B11)</f>
+        <f t="shared" si="0"/>
         <v>1730245.64</v>
       </c>
       <c r="S11" s="25">
         <f>(K11*L11-M11)+(K11*L11+N11-P11)</f>
-        <v>-0.143385599949397</v>
+        <v>-0.14338559994939715</v>
       </c>
       <c r="T11" s="25">
         <f>P11/K11-O11</f>
-        <v>0.000158086367378019</v>
+        <v>1.5808636737801862E-4</v>
       </c>
       <c r="U11" s="27"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>44347</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="17">
         <v>44228</v>
       </c>
       <c r="K12" s="18">
-        <v>454.102</v>
+        <v>454.10199999999998</v>
       </c>
       <c r="L12" s="19">
         <v>917.3768</v>
@@ -2046,7 +1512,7 @@
         <v>1057.3</v>
       </c>
       <c r="O12" s="19">
-        <v>919.7051</v>
+        <v>919.70510000000002</v>
       </c>
       <c r="P12" s="20">
         <v>417639.9</v>
@@ -2055,52 +1521,52 @@
         <v>1730245.64</v>
       </c>
       <c r="R12" s="20">
-        <f>SUMIFS(P:P,B:B,B12)</f>
+        <f t="shared" si="0"/>
         <v>1730245.64</v>
       </c>
       <c r="S12" s="25">
         <f>(K12*L12-M12)+(K12*L12+N12-P12)</f>
-        <v>0.0692671998986043</v>
+        <v>6.9267199898604304E-2</v>
       </c>
       <c r="T12" s="25">
         <f>P12/K12-O12</f>
-        <v>-5.57588382434915e-5</v>
+        <v>-5.5758838243491482E-5</v>
       </c>
       <c r="U12" s="27"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>44347</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="H13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="17">
         <v>44287</v>
       </c>
       <c r="K13" s="18">
-        <v>540.449</v>
+        <v>540.44899999999996</v>
       </c>
       <c r="L13" s="19">
         <v>917.3768</v>
@@ -2109,10 +1575,10 @@
         <v>495795.73</v>
       </c>
       <c r="N13" s="20">
-        <v>1258.34</v>
+        <v>1258.3399999999999</v>
       </c>
       <c r="O13" s="19">
-        <v>919.7051</v>
+        <v>919.70510000000002</v>
       </c>
       <c r="P13" s="20">
         <v>497054.07</v>
@@ -2121,74 +1587,74 @@
         <v>1730245.64</v>
       </c>
       <c r="R13" s="20">
-        <f>SUMIFS(P:P,B:B,B13)</f>
+        <f t="shared" si="0"/>
         <v>1730245.64</v>
       </c>
       <c r="S13" s="25">
         <f>(K13*L13-M13)+(K13*L13+N13-P13)</f>
-        <v>-0.711633600061759</v>
+        <v>-0.71163360006175935</v>
       </c>
       <c r="T13" s="25">
         <f>P13/K13-O13</f>
-        <v>0.000681674126553844</v>
+        <v>6.8167412655384396E-4</v>
       </c>
       <c r="U13" s="27"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1 D10:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:G1 E10:G1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="m001shanghai@hotmail.com"/>
-    <hyperlink ref="G3" r:id="rId1" display="m001shanghai@hotmail.com"/>
-    <hyperlink ref="G4" r:id="rId1" display="m001shanghai@hotmail.com"/>
-    <hyperlink ref="G5" r:id="rId1" display="m001shanghai@hotmail.com"/>
-    <hyperlink ref="G6" r:id="rId1" display="m001shanghai@hotmail.com"/>
-    <hyperlink ref="G7" r:id="rId2" display="111@qq.com"/>
-    <hyperlink ref="G8" r:id="rId2" display="111@qq.com"/>
-    <hyperlink ref="G9" r:id="rId2" display="111@qq.com"/>
-    <hyperlink ref="G10" r:id="rId3" display="rine.wu@gicentre.com"/>
-    <hyperlink ref="G11" r:id="rId3" display="rine.wu@gicentre.com"/>
-    <hyperlink ref="G12" r:id="rId3" display="rine.wu@gicentre.com"/>
-    <hyperlink ref="G13" r:id="rId3" display="rine.wu@gicentre.com"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G12" r:id="rId11"/>
+    <hyperlink ref="G13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.22222222222222" customWidth="1"/>
-    <col min="9" max="9" width="22.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>